--- a/прога/прога.xlsx
+++ b/прога/прога.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\кит\прога\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD20103-3131-488A-93B3-DDCDE3EF2BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB7F98C-C5B4-48AB-9024-DFBDD69F2C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -34,13 +34,49 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>extask-01</t>
+  </si>
+  <si>
+    <t>extask-02</t>
+  </si>
+  <si>
+    <t>extask-03</t>
+  </si>
+  <si>
+    <t>extask-04</t>
+  </si>
+  <si>
+    <t>extask-05</t>
+  </si>
+  <si>
+    <t>extask-06</t>
+  </si>
+  <si>
+    <t>extask-07</t>
+  </si>
+  <si>
+    <t>extask-08</t>
+  </si>
+  <si>
+    <t>extask-09</t>
+  </si>
+  <si>
+    <t>extask-10</t>
+  </si>
+  <si>
+    <t>extask-11</t>
+  </si>
+  <si>
+    <t>extask-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +84,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -90,7 +158,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -106,24 +176,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -137,13 +189,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -155,24 +200,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -183,10 +210,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -194,6 +223,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -203,30 +235,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,260 +529,197 @@
   <dimension ref="B2:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3">
-        <v>20</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="I4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="M4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/прога/прога.xlsx
+++ b/прога/прога.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\кит\прога\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB7F98C-C5B4-48AB-9024-DFBDD69F2C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768B937-03D3-4FBB-95EA-BF546CEEA4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="510" windowWidth="26940" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="B2:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
